--- a/media/order.xlsx
+++ b/media/order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3828</t>
+          <t>1439-11/2021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -571,12 +571,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28811202702175</t>
+          <t>26212210102359</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمود الليثى محمود عبد العال </t>
+          <t>عادل حسن احمد وهبة</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -591,25 +591,29 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">قنا  </t>
+          <t>القليوبية</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">قنا  </t>
+          <t>العبور</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">قنا  </t>
+          <t>إسكان شباب مبارك الاستثمارى 135 م-العبور-محافظة القليوبية</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>5387.30000</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>tax.TaxTotals.None</t>
@@ -617,11 +621,19 @@
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>5389.20140</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>5387.30000</t>
+        </is>
+      </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2021-12-23 09:12:37.718100+00:00</t>
+          <t>2021-12-30 13:43:01.550644+00:00</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -636,7 +648,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3828</t>
+          <t>1439-11/2021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -661,12 +673,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>28811202702175</t>
+          <t>26212210102359</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمود الليثى محمود عبد العال </t>
+          <t>عادل حسن احمد وهبة</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -681,25 +693,29 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">قنا  </t>
+          <t>القليوبية</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">قنا  </t>
+          <t>العبور</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">قنا  </t>
+          <t>إسكان شباب مبارك الاستثمارى 135 م-العبور-محافظة القليوبية</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>5387.30000</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>tax.TaxTotals.None</t>
@@ -707,11 +723,19 @@
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>5389.20140</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>5387.30000</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2021-12-23 09:09:48.629322+00:00</t>
+          <t>2021-12-30 13:41:35.335696+00:00</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -726,7 +750,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3828</t>
+          <t>1489-11/2021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -751,45 +775,49 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>28811202702175</t>
+          <t>25311260102435</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمود الليثى محمود عبد العال </t>
+          <t>عادل بشرى جرجس</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>الشرقية</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>انشاص</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">خارج الزمام – بساتين الاسماعلية – بلبيس – الشرقية – انشاص </t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>261.80000</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>tax.TaxTotals.None</t>
@@ -797,11 +825,19 @@
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>261.89240</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>261.80000</t>
+        </is>
+      </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2021-12-23 08:56:26.537739+00:00</t>
+          <t>2021-12-30 13:08:19.124306+00:00</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -816,7 +852,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3828</t>
+          <t>1439-11/2021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -836,50 +872,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26807191801431</t>
+          <t>26212210102359</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>عادل حسن احمد وهبة</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>القليوبية</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>العبور</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>إسكان شباب مبارك الاستثمارى 135 م-العبور-محافظة القليوبية</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>5387.30000</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>tax.TaxTotals.None</t>
@@ -887,14 +927,226 @@
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>5389.20140</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>5387.30000</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2021-12-23 08:35:47.750934+00:00</t>
+          <t>2021-12-30 13:07:56.388607+00:00</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
+        <is>
+          <t>Not Send</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1489-11/2021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>25311260102435</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>عادل بشرى جرجس</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>الشرقية</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>انشاص</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">خارج الزمام – بساتين الاسماعلية – بلبيس – الشرقية – انشاص </t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>261.80000</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>261.89240</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>261.80000</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:18:25.192633+00:00</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Not Send</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1439-11/2021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>26212210102359</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>عادل حسن احمد وهبة</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>القليوبية</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>العبور</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>إسكان شباب مبارك الاستثمارى 135 م-العبور-محافظة القليوبية</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>5387.30000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5389.20140</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>5387.30000</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:17:50.188094+00:00</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>Not Send</t>
         </is>

--- a/media/order.xlsx
+++ b/media/order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1439-11/2021</t>
+          <t>1550-11/2021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -571,12 +571,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26212210102359</t>
+          <t>26806090200936</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>عادل حسن احمد وهبة</t>
+          <t xml:space="preserve"> أسامة رفعت فهيم </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>القليوبية</t>
+          <t>البحيرة</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>العبور</t>
+          <t>مركز وادى النطرون</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>إسكان شباب مبارك الاستثمارى 135 م-العبور-محافظة القليوبية</t>
+          <t>الوادى الفارغ</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>5387.30000</t>
+          <t>37895.86950</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -623,22 +623,22 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>5389.20140</t>
+          <t>37905.99150</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>5387.30000</t>
+          <t>37895.86950</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2021-12-30 13:43:01.550644+00:00</t>
+          <t>2021-12-30 10:40:26.408546+00:00</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Not Send</t>
+          <t>W87XE8ZS0KB9PSAF75GTE5RF10</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1439-11/2021</t>
+          <t>1551-11/2021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26212210102359</t>
+          <t>240255410</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>عادل حسن احمد وهبة</t>
+          <t xml:space="preserve"> المصريين للاستصلاح التنمية</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>القليوبية</t>
+          <t>البحيرة</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>العبور</t>
+          <t>مركز وادى النطرون</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>إسكان شباب مبارك الاستثمارى 135 م-العبور-محافظة القليوبية</t>
+          <t>الوادى الفارغ</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>5387.30000</t>
+          <t>87016.80100</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -725,22 +725,22 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
-          <t>5389.20140</t>
+          <t>87051.49900</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>5387.30000</t>
+          <t>87016.80100</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2021-12-30 13:41:35.335696+00:00</t>
+          <t>2021-12-30 10:40:28.371809+00:00</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Not Send</t>
+          <t>CR5QSGYWF66NGMWBDRHTE5RF10</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1489-11/2021</t>
+          <t>1552-11/2021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25311260102435</t>
+          <t>26607230400199</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>عادل بشرى جرجس</t>
+          <t>هاني وديع منصور</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -800,12 +800,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>انشاص</t>
+          <t xml:space="preserve"> مدينة الصالحية </t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve">خارج الزمام – بساتين الاسماعلية – بلبيس – الشرقية – انشاص </t>
+          <t xml:space="preserve">مجاورة 12 امام السوق التجاري - مدينة الصالحية </t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>261.80000</t>
+          <t>41635.04900</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -827,17 +827,17 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
-          <t>261.89240</t>
+          <t>41651.65100</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>261.80000</t>
+          <t>41635.04900</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2021-12-30 13:08:19.124306+00:00</t>
+          <t>2021-12-30 10:40:30.517540+00:00</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1439-11/2021</t>
+          <t>1553-11/2021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -877,12 +877,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26212210102359</t>
+          <t>26807191801431</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>عادل حسن احمد وهبة</t>
+          <t xml:space="preserve">عطية سالم عطية </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -897,17 +897,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>القليوبية</t>
+          <t>البحيرة</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>العبور</t>
+          <t>مركز وادى النطرون</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>إسكان شباب مبارك الاستثمارى 135 م-العبور-محافظة القليوبية</t>
+          <t>الوادى الفارغ</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>5387.30000</t>
+          <t>65905.86000</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -929,22 +929,22 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
-          <t>5389.20140</t>
+          <t>65929.45800</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>5387.30000</t>
+          <t>65905.86000</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2021-12-30 13:07:56.388607+00:00</t>
+          <t>2021-12-30 10:40:31.097836+00:00</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Not Send</t>
+          <t>09W26G3MEBD536BPXWKTE5RF10</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1489-11/2021</t>
+          <t>1554-11/2021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>25311260102435</t>
+          <t>27506050105779</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>عادل بشرى جرجس</t>
+          <t>نبيل منير اسحق</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -999,17 +999,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>الشرقية</t>
+          <t>البحيرة</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>انشاص</t>
+          <t>مركز وادى النطرون</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">خارج الزمام – بساتين الاسماعلية – بلبيس – الشرقية – انشاص </t>
+          <t>الوادى الفارغ</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>261.80000</t>
+          <t>116177.88700</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1031,22 +1031,22 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
-          <t>261.89240</t>
+          <t>116224.21300</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>261.80000</t>
+          <t>116177.88700</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2021-12-30 10:18:25.192633+00:00</t>
+          <t>2021-12-30 10:40:31.839141+00:00</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Not Send</t>
+          <t>1CKB0CPZQ9RSD4JW3TMTE5RF10</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1439-11/2021</t>
+          <t>1555-11/2021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26212210102359</t>
+          <t>26604182201015</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>عادل حسن احمد وهبة</t>
+          <t>هشام احمد محمود عبد الله1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1101,17 +1101,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>القليوبية</t>
+          <t>البحيرة</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>العبور</t>
+          <t>مركز وادى النطرون</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>إسكان شباب مبارك الاستثمارى 135 م-العبور-محافظة القليوبية</t>
+          <t>الوادى الفارغ</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>5387.30000</t>
+          <t>127568.46600</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1133,20 +1133,5630 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5389.20140</t>
+          <t>127619.33400</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>5387.30000</t>
+          <t>127568.46600</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2021-12-30 10:17:50.188094+00:00</t>
+          <t>2021-12-30 10:40:32.690836+00:00</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
+        <is>
+          <t>DN077PDJ6G815K00CKNTE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1556-11/2021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>27003231701312</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>أسامة ياسين محمد أبو السعود</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>25655.13500</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>25665.36500</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>25655.13500</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:33.489763+00:00</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>5W040G7Z76CERJCHA6PTE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1557-11/2021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>26604100100216</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>اشرف جورج مينا</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>84819.93900</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>84853.76100</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>84819.93900</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:34.721331+00:00</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>H071ZEWZBRZ21ZPQ5FQTE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1558-11/2021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>27004240101812</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>محمد فوزى</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>49438.42320</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>49458.13680</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>49438.42320</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:35.408380+00:00</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1PWFCFV66EZ0Y97372RTE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1559-11/2021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>24710251800616</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>حسين عبد الله حسين الحلاج</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>28792.43450</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>28803.91550</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>28792.43450</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:36.009705+00:00</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>RS6P2SC61V52GKGC9NRTE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1560-11/2021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>26807191801431</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عطية سالم عطية 2 </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>34668.28800</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>34682.11200</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>34668.28800</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:36.637854+00:00</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>8AQ91SAAD821SCC4ZFSTE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1561-11/2021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>26306042700517</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ايهاب فلتاؤوس تاوضروس</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>119292.61600</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>119340.18400</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>119292.61600</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:37.464945+00:00</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>7333N50TWV3F690JDFTTE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1562-11/2021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>27805110100515</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>امين نبيل امين واشرف فاروق مهنى</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>65905.86000</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>65931.99000</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>65905.86000</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:38.510920+00:00</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>RASVE414VPM9AZJS0EVTE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1563-11/2021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>27811140106518</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>حسام الدين عبد السلام</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>32952.93000</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>32965.36800</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>32952.93000</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:39.472769+00:00</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>SV4WNXWNDYFCM95PW3WTE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1564-11/2021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>27211011600631</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>محمد السيد محمد الدوى</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>29958.57700</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>29970.52300</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>29958.57700</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:40.206399+00:00</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>YRHPFE2D2AEBTGHYWSWTE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1565-11/2021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>26604182201015</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">هشام احمد محمود عبد الله 2 </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>98061.29900</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>98100.40100</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>98061.29900</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:40.873652+00:00</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>ESHKPPV04SNXEJVKPMXTE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1566-11/2021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>26211258800035</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>كمال طوبيا بقطر</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>129344.01200</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>129395.58800</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>129344.01200</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:41.739579+00:00</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>79KHYKSBRHMDPXCPT3ZTE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1567-11/2021</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>26306042700517</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ايهاب فلتاؤوس تاوضروس 2</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>49429.39500</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>49443.42900</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>49429.39500</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:43.255637+00:00</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>79PAMASXC3YMRHQKSD1VE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1568-11/2021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>27101100100048</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>شيرين رمزى كامل</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>37798.06400</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>37813.13600</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>37798.06400</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:46.237081+00:00</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>6DCFNCM4FD4REB0JT23VE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1569-11/2021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>205109497</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مصر للمشروبات </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>52724.68800</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>52738.22400</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>52724.68800</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:47.328779+00:00</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>8BKPGQ0CGDSM0FJ5J84VE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1570-11/2021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>26601130103873</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>جمال ابراهيم عبد العزيز</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>16476.46500</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>16482.62100</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>16476.46500</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:48.685207+00:00</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>XFMTGMRHVSV78K4YW36VE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1571-11/2021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>27102101800554</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">جابر عبد السلام مجلى </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>16476.46500</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>16482.23700</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>16476.46500</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:50.518291+00:00</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0WP2CX9EP8QVTDF0M08VE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1572-11/2021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>27008260200979</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>شريف عبد المجيد رستم</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>32952.93000</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>32962.16400</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>32952.93000</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:52.555502+00:00</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>T34NZVGDS54PQ0AWZQ9VE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1573-11/2021</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>25506041300031</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>إبراهيم حسن إبراهيم عبد الله</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>32952.93000</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>32961.21000</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>32952.93000</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:54.338441+00:00</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>BFHD71TK6F9FMHQ7YDCVE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1574-11/2021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>26806090200936</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>أسامة رفعت فهيم 2</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>49429.39500</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>49447.26900</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>49429.39500</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:57.047685+00:00</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>BXWARG4HK7FT9ZAS00FVE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1575-11/2021</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>27003051500734</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>بسيوني محمود الشلقاني</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>26678.33100</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>26688.96900</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>26678.33100</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:40:59.651159+00:00</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>SEV9AWJ5Q9DRE5676EGVE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1576-11/2021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>28211221800555</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>عمرو محمد رضا عبد العضيم الشريف</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>33341.14260</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>33354.43740</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>33341.14260</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:00.973508+00:00</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>NNKZPNVDF9RWBMHYDDHVE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1577-11/2021</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>27003041700628</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>اشرف حسن عبد الرحمن عبد السلام (المفوض وفقا للتعاقد)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>23882.59840</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>23892.12160</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>23882.59840</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:01.984898+00:00</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Not Send</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1578-11/2021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>28210122600556</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>سعد محمود خلف الله شحاتة (المفوض وفقا للتعاقد)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>32468.41660</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>32481.36340</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>32468.41660</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:02.780078+00:00</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Not Send</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1579-11/2021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>26912221601413</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>عاصم محمد العسوى صقر (المفوض وفقا للتعاقد)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>40309.40830</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>40325.48170</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>40309.40830</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:03.414212+00:00</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Not Send</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1580-11/2021</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>28208101100176</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>احمد محمد عبد الهادى الشملول (المفوض وفقا للتعاقد)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>38965.71120</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>38981.24880</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>38965.71120</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:04.272811+00:00</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Not Send</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1581-11/2021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>25607141800252</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>رمضان عبد الشفيع حسن النمس (المفوض وفقا للتعاقد)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>27931.74610</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>27942.88390</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>27931.74610</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:04.915715+00:00</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Not Send</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1582-11/2021</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>25310031701591</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>صبحى احمد على حسين</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>193504.42000</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>193581.58000</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>193504.42000</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:05.581889+00:00</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>4B25H400FCNJNZ4BF6PVE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1583-11/2021</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>27110011501411</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">محمود محمد بسيوني أبو المجد </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>30679.32830</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>30691.56170</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>30679.32830</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:06.940456+00:00</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>33YBEN9V242WJ4G7AFRVE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1584-11/2021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>28501010122486</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ميريم نبيل حنا </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>32952.93000</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>32957.31600</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>32952.93000</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:09.466396+00:00</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>3E9B5HBRPW1JWHCHXYSVE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1585-11/2021</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>26701141802531</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>محب  عبدالنبي محمد (التنعيم)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>77929.91770</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>77960.99230</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>77929.91770</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:10.984351+00:00</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>21X77PV0MSNEFRSHVRVVE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1586-11/2021</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>26806090200936</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> أسامة رفعت فهيم 4</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>16476.46500</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>16478.37420</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>16476.46500</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:12.589196+00:00</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>5HTH76MXM2YTR27XVCWVE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1587-11/2021</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>27805110100515</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>امين نبيل امين واشرف فاروق مهنى 2</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>57818.09750</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>57841.15250</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>57818.09750</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:13.234941+00:00</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>QK82A61FFT1XVDDNBGXVE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1588-11/2021</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>27304031200599</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عبد الوهاب عبد الله العشرى </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>مركز وادى النطرون</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>الوادى الفارغ</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>5444.00460</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>5446.17540</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>5444.00460</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:14.389692+00:00</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>SFV8JSQFH4VWPGYQH2ZVE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1590-11/2021</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>200128086</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>الجامعة الأمريكية</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>القاهرة</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>التجمع الخامس</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>التجمع الخامس</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>655028.48000</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>656240.00000</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>655028.48000</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:16.071497+00:00</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>HSTGEJA4SVA0S2299YZVE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1590-11/2021</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>200128086</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>الجامعة الأمريكية</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>القاهرة</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>التجمع الخامس</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>التجمع الخامس</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>19182.40000</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>19182.40000</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>19182.40000</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:16.849642+00:00</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>JETV32MRY8ETW00BQ92WE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1590-11/2021</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>200128086</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>الجامعة الأمريكية</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>القاهرة</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>التجمع الخامس</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>التجمع الخامس</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>51747.52800</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>51747.52800</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>51747.52800</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:19.290035+00:00</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>KN9P82VZN0A43AY8QX2WE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1589-11/2021</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>274550938</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>أيستار إيجيبت للصناعة حديد العشري</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>الجيزة</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مدينة 6 أكتوبر </t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">قطعة 123،125المنطقة الصناعية الثالثة </t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>3606374.80000</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>3606629.14000</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>3606374.80000</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:19.924138+00:00</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>XYGCY7TWPGN81ZST9R3WE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1592-11/2021</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>277841077</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>بورتلاند المنيا للاسمنت</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>المنيا</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">المنطقة32 للصناعات الثقيلة </t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">المنطقة32 للصناعات الثقيلة </t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>7864907.77800</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>7869265.46800</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>7864907.77800</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:20.760151+00:00</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Not Send</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1530-11/2021</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>706011473</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>الإسكندرية للعبوات الصناعية (أكيب)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>بلوك 21 - المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>727177.23000</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>727465.05000</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>727177.23000</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:21.471582+00:00</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>NBYDWGVTTAK0905GN25WE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1532-11/2021</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>261768204</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>شركة البحر المتوسط للورق</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">بلوك 23 - المنطقة الصناعية الرابعة  </t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2أ&amp; 2د</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>1403763.64236</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>1404358.88240</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>1403763.64236</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:22.103763+00:00</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>68QDNHPSD5AZ7JP4AP5WE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1547-11/2021</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>575014628</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>شركة الامل لدرفلة المعادن</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>7862395.70000</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>7865553.50000</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>7862395.70000</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:23.815355+00:00</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>XRSM6MH5ZKES9CWQWB7WE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1533-11/2021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>261768204</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>شركة البحر المتوسط للورق المرحلة الثانية</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>1607694.27000</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>1608387.69000</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>1607694.27000</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:24.449719+00:00</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Not Send</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1537-11/2021</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>453022162</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Mediterranean textile co,</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>4057684.55480</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>4057684.55480</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>4057684.55480</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:25.855141+00:00</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>0FYZPKHFJSSWF09FNB9WE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1534-11/2021</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>413586650</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>شركة مدار جروب مصر للكيماويات</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>بلوك 16 - المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>1277119.18700</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>1277610.50700</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>1277119.18700</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:26.503005+00:00</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>CG2PMH5C2ECJXRSS7KAWE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1531-11/2021</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>308410459</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>شركة الفتح لصناعة الأدوية ومستحضرات التجميل</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>615915.60000</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>616137.41000</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>615915.60000</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:27.889268+00:00</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Not Send</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1544-11/2021</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>301367108</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>المدائن للاساسات والانشاءات</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>بلوك 30 - المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>11&amp;12</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>2880942.59300</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>2882060.88300</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>2880942.59300</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:29.130570+00:00</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>QQ4QQC1KB7AKTEGYKMCWE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1541-11/2021</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>545176468</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>ام ام للمعادن</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>بلوك 24 - المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>4501958.66130</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>4503367.46130</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>4501958.66130</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:29.857567+00:00</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>MS1A4K3W3VY65YG4P9DWE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1535-11/2021</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>703631454</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>شركة تكنوبلاست ( ماجد الخناجرى وشركاة)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>بلوك 21 - المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>652470.86520</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>652727.64520</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>652470.86520</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:30.540360+00:00</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>CW14J8JKS814TYS1TYDWE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1542-11/2021</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>202465837</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>شركة تيوبوركو</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>بلوك 9 - المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>298648.18240</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>298749.57240</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>298648.18240</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:31.295241+00:00</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>TR0P582E8AC4JYRVTMEWE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1545-11/2021</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>575033290</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>جرين جولد للصناعات الغذائية</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>بلوك 14 - المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>158096.10000</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>158145.29000</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>158096.10000</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:31.911504+00:00</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>DSTJ1HEP33415C0DX7FWE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1538-11/2021</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>100133770</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>شركة انترسمنت العامرية</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>الغربانيات - المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>6895350.00000</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>6898650.00000</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>6895350.00000</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:32.519017+00:00</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>FYJ1DFHHE9KV3DSPTTFWE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1540-11/2021</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>569757665</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>شركة ووتر تكنولوجى بايب</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>بلوك 34 - المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1&amp;22</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>906796.80000</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>907142.40000</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>906796.80000</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:33.126655+00:00</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>9PR6AGFRGJ94A5PC6DGWE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1543-11/2021</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>721578950</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>على الدين للصناعات المعدنية والتجارة</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>القاهرة</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>مصر الجديده</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>الميرغني - المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2816522.49463</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>2817344.85460</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>2816522.49463</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:33.728726+00:00</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>3NRD8W4049VTJTVRS1HWE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1548-11/2021</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>701304464</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">شركة ميد جاز للغازات الصناعية </t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>بلوك 22 - المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>1798751.88600</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>1799563.04600</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>1798751.88600</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:34.359595+00:00</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Y0PXC78DY7SFG13BF9JWE5RF10</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1549-11/2021</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>701304464</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">شركة ميد جاز للغازات الصناعية </t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>الإسكندرية</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>بلوك 22 - المنطقة الصناعية الرابعة</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>174338.40000</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>tax.TaxTotals.None</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>174420.00000</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>174338.40000</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>2021-12-30 10:41:36.366518+00:00</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
         <is>
           <t>Not Send</t>
         </is>
